--- a/CHIN/CHIN.xlsx
+++ b/CHIN/CHIN.xlsx
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="4">

--- a/CHIN/CHIN.xlsx
+++ b/CHIN/CHIN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,10 +539,25 @@
           <t>FTES</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Potential FTEF</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>FTEF</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -556,7 +571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -573,7 +588,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -590,13 +605,13 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>24</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -623,12 +638,21 @@
         </is>
       </c>
       <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -642,7 +666,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fifteen Week B M-F Session (1/31/2022 - 5/20/2022)</t>
+          <t>Fifteen Week B M-F Session (1/30/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -659,7 +683,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -676,13 +700,13 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -709,12 +733,21 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.333333333333333</v>
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -728,7 +761,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -736,28 +769,16 @@
           <t>23483</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4:00pm</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6:15pm</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>REMOTE</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -774,13 +795,13 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -803,16 +824,25 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>Online Course</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.666666666666667</v>
+        <v>1.333333333333333</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -826,7 +856,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -846,7 +876,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Th</t>
+          <t>Tu Th</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -855,10 +885,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -872,13 +902,13 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -901,16 +931,25 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.333333333333333</v>
+        <v>0.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -924,7 +963,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -944,7 +983,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Th</t>
+          <t>Tu Th</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -953,10 +992,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -970,13 +1009,13 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -999,16 +1038,25 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>Combined</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1022,7 +1070,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1039,7 +1087,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>35</v>
@@ -1056,13 +1104,13 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1089,7 +1137,16 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/CHIN/CHIN.xlsx
+++ b/CHIN/CHIN.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -605,7 +605,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -647,12 +647,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
@@ -837,12 +837,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
